--- a/input_spreadsheets/Kenya/Input_Kenya_2016.xlsx
+++ b/input_spreadsheets/Kenya/Input_Kenya_2016.xlsx
@@ -326,7 +326,12 @@
     </font>
     <font/>
     <font>
-      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -335,9 +340,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -359,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -371,13 +373,19 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -386,7 +394,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -394,34 +402,34 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -430,29 +438,29 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -932,16 +940,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17">
+      <c r="A2" s="19">
         <v>11.2</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="19">
         <v>268.7</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="19">
         <v>67.3</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="19">
         <v>67.3</v>
       </c>
     </row>
@@ -981,19 +989,19 @@
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="20">
         <v>2.878</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="20">
         <v>2.878</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="20">
         <v>4.39</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="20">
         <v>3.553</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="20">
         <v>2.271</v>
       </c>
     </row>
@@ -1001,19 +1009,19 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="21">
         <v>0.26</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="21">
         <v>0.26</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="21">
         <v>0.26</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="21">
         <v>0.26</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="21">
         <v>0.26</v>
       </c>
     </row>
@@ -1197,30 +1205,30 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="12">
         <v>2.82</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="12">
         <v>1.94</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>4.98</v>
       </c>
     </row>
@@ -1458,19 +1466,19 @@
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="23">
         <v>2.3</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="23">
         <v>4.6</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="23">
         <v>1.57</v>
       </c>
-      <c r="E2" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="22">
+      <c r="E2" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -1523,19 +1531,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1640,71 +1648,71 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>2024.0</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2,598,743</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>2025.0</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2,671,508</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="9">
         <v>2026.0</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2,746,310</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>2027.0</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2,823,207</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
         <v>2028.0</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2,902,257</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="9">
         <v>2029.0</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2,983,520</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="9">
         <v>2030.0</v>
       </c>
-      <c r="B15" s="8" t="str">
+      <c r="B15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>3,067,058</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1741,7 +1749,7 @@
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="26">
         <v>0.0</v>
       </c>
       <c r="C2" s="2">
@@ -1751,7 +1759,7 @@
         <v>60.0</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="25"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3">
@@ -1768,11 +1776,11 @@
         <v>60.0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="25"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="2">
@@ -1785,11 +1793,11 @@
         <v>300.0</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="25"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="2">
@@ -1802,7 +1810,7 @@
         <v>10000.0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6">
@@ -1819,7 +1827,7 @@
         <v>300.0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7">
@@ -1836,7 +1844,7 @@
         <v>20.0</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8">
@@ -1853,7 +1861,7 @@
         <v>1000.0</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9">
@@ -1870,7 +1878,7 @@
         <v>300.0</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="25"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10">
@@ -2010,29 +2018,29 @@
       <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="B2" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="9">
         <v>0.0</v>
       </c>
     </row>
@@ -2040,133 +2048,133 @@
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="B3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
+      <c r="B4" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="29" t="str">
+      <c r="B5" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="31" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="31" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="F5" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
+      <c r="F5" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="B6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="9">
         <v>0.0</v>
       </c>
     </row>
@@ -2174,22 +2182,22 @@
       <c r="A7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="B7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="9">
         <v>1.0</v>
       </c>
     </row>
@@ -2197,22 +2205,22 @@
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="B8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="9">
         <v>1.0</v>
       </c>
     </row>
@@ -2220,22 +2228,22 @@
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="B9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="9">
         <v>1.0</v>
       </c>
     </row>
@@ -2378,16 +2386,16 @@
       <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="33">
         <v>0.35</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="33">
         <v>0.35</v>
       </c>
-      <c r="E2" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="E2" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -2395,16 +2403,16 @@
       <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="34">
         <v>0.1</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="34">
         <v>0.1</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="34">
         <v>0.1</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="34">
         <v>0.1</v>
       </c>
     </row>
@@ -2415,16 +2423,16 @@
       <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="33">
         <v>0.31</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="33">
         <v>0.31</v>
       </c>
-      <c r="E4" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="31">
+      <c r="E4" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -2432,19 +2440,19 @@
       <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="33" t="str">
+      <c r="C5" s="35" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="D5" s="33" t="str">
+      <c r="D5" s="35" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="E5" s="33" t="str">
+      <c r="E5" s="35" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -2455,16 +2463,16 @@
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="33">
         <v>0.09</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="33">
         <v>0.09</v>
       </c>
-      <c r="E6" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="E6" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -2472,16 +2480,16 @@
       <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="C7" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -2539,10 +2547,10 @@
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="36">
         <v>0.253</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="36">
         <v>0.253</v>
       </c>
     </row>
@@ -2560,10 +2568,10 @@
       <c r="E3" s="2">
         <v>0.0</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="36">
         <v>0.253</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="36">
         <v>0.253</v>
       </c>
     </row>
@@ -2583,10 +2591,10 @@
       <c r="E4" s="2">
         <v>0.416</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="30">
         <v>0.416</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="30">
         <v>0.416</v>
       </c>
     </row>
@@ -2944,13 +2952,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>22.2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="12">
         <v>35.5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="12">
         <v>49.4</v>
       </c>
     </row>
@@ -2991,7 +2999,7 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="13">
         <v>0.003996</v>
       </c>
       <c r="C2" s="2">
@@ -3011,7 +3019,7 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>0.15484515</v>
       </c>
       <c r="C3" s="2">
@@ -3031,7 +3039,7 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>0.06893107</v>
       </c>
       <c r="C4" s="2">
@@ -3051,7 +3059,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>0.30969031</v>
       </c>
       <c r="C5" s="2">
@@ -3071,7 +3079,7 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="13">
         <v>0.25974026</v>
       </c>
       <c r="C6" s="2">
@@ -3091,7 +3099,7 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="13">
         <v>0.00899101</v>
       </c>
       <c r="C7" s="2">
@@ -3111,7 +3119,7 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>0.13186813</v>
       </c>
       <c r="C8" s="2">
@@ -3131,7 +3139,7 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="13">
         <v>0.06193806</v>
       </c>
       <c r="C9" s="2">
@@ -3151,19 +3159,19 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="13">
         <v>0.131</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>0.131</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>0.131</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="13">
         <v>0.131</v>
       </c>
     </row>
@@ -3171,19 +3179,19 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="13">
         <v>0.203</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>0.203</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>0.203</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>0.203</v>
       </c>
     </row>
@@ -3191,19 +3199,19 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="13">
         <v>0.03</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>0.03</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="13">
         <v>0.03</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="13">
         <v>0.03</v>
       </c>
     </row>
@@ -3214,16 +3222,16 @@
       <c r="B13" s="2">
         <v>0.0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>0.006</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>0.006</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="13">
         <v>0.006</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="13">
         <v>0.006</v>
       </c>
     </row>
@@ -3234,16 +3242,16 @@
       <c r="B14" s="2">
         <v>0.0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>0.09300000000000001</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <v>0.09300000000000001</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="13">
         <v>0.09300000000000001</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="13">
         <v>0.09300000000000001</v>
       </c>
     </row>
@@ -3254,16 +3262,16 @@
       <c r="B15" s="2">
         <v>0.0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="13">
         <v>0.034</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="13">
         <v>0.034</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="13">
         <v>0.034</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="13">
         <v>0.034</v>
       </c>
     </row>
@@ -3274,16 +3282,16 @@
       <c r="B16" s="2">
         <v>0.0</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="13">
         <v>0.102</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="13">
         <v>0.102</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="13">
         <v>0.102</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="13">
         <v>0.102</v>
       </c>
     </row>
@@ -3294,16 +3302,16 @@
       <c r="B17" s="2">
         <v>0.0</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <v>0.11599999999999999</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>0.11599999999999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="13">
         <v>0.11599999999999999</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="13">
         <v>0.11599999999999999</v>
       </c>
     </row>
@@ -3314,16 +3322,16 @@
       <c r="B18" s="2">
         <v>0.0</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <v>0.285</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>0.285</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="13">
         <v>0.285</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="13">
         <v>0.285</v>
       </c>
     </row>
@@ -3369,19 +3377,19 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>72.414</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="15">
         <v>72.414</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="15">
         <v>50.928</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="15">
         <v>30.281</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="15">
         <v>30.859</v>
       </c>
     </row>
@@ -3389,19 +3397,19 @@
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>17.035</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="15">
         <v>17.035</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>22.44</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <v>25.639</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="15">
         <v>31.548</v>
       </c>
     </row>
@@ -3409,19 +3417,19 @@
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="15">
         <v>6.386</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>6.386</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="15">
         <v>15.042</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="15">
         <v>25.718</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="15">
         <v>23.329</v>
       </c>
     </row>
@@ -3429,19 +3437,19 @@
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="15">
         <v>4.165</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="15">
         <v>4.165</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="15">
         <v>11.59</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="15">
         <v>18.362</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="15">
         <v>14.264</v>
       </c>
     </row>
@@ -3452,19 +3460,19 @@
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>78.902</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <v>78.902</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="15">
         <v>71.711</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="15">
         <v>81.568</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="15">
         <v>79.006</v>
       </c>
     </row>
@@ -3472,19 +3480,19 @@
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>11.952</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>11.952</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <v>17.456</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="15">
         <v>13.323</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="15">
         <v>15.178</v>
       </c>
     </row>
@@ -3492,19 +3500,19 @@
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>4.441</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="15">
         <v>4.441</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="15">
         <v>9.671</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="15">
         <v>3.591</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="15">
         <v>4.166</v>
       </c>
     </row>
@@ -3512,19 +3520,19 @@
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="15">
         <v>4.705</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="15">
         <v>4.705</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="15">
         <v>1.162</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="15">
         <v>1.518</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="15">
         <v>1.65</v>
       </c>
     </row>
@@ -3535,16 +3543,16 @@
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>52.781</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <v>29.554</v>
       </c>
-      <c r="E10" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="E10" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="17">
         <v>0.0</v>
       </c>
       <c r="G10" s="2">
@@ -3555,16 +3563,16 @@
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <v>30.485</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <v>14.36</v>
       </c>
-      <c r="E11" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="E11" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="18">
         <v>0.0</v>
       </c>
       <c r="G11" s="2">
@@ -3575,16 +3583,16 @@
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>15.035</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="16">
         <v>55.307</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="16">
         <v>96.353</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="16">
         <v>71.798</v>
       </c>
       <c r="G12" s="2">
@@ -3595,16 +3603,16 @@
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="12">
         <v>1.699</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="12">
         <v>0.779</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="16">
         <v>3.647</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="16">
         <v>28.202</v>
       </c>
       <c r="G13" s="2">

--- a/input_spreadsheets/Kenya/Input_Kenya_2016.xlsx
+++ b/input_spreadsheets/Kenya/Input_Kenya_2016.xlsx
@@ -326,11 +326,7 @@
     </font>
     <font/>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -340,6 +336,9 @@
     </font>
     <font>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -379,22 +378,22 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -402,34 +401,34 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -438,29 +437,29 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1599,7 +1598,7 @@
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" ref="B3:B15" si="1">$B2*1.028</f>
-        <v>2,201,936</v>
+        <v>2201936</v>
       </c>
     </row>
     <row r="4">
@@ -1608,7 +1607,7 @@
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2,263,590</v>
+        <v>2263590</v>
       </c>
     </row>
     <row r="5">
@@ -1617,7 +1616,7 @@
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2,326,971</v>
+        <v>2326971</v>
       </c>
     </row>
     <row r="6">
@@ -1626,7 +1625,7 @@
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2,392,126</v>
+        <v>2392126</v>
       </c>
     </row>
     <row r="7">
@@ -1635,7 +1634,7 @@
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2,459,105</v>
+        <v>2459105</v>
       </c>
     </row>
     <row r="8">
@@ -1644,7 +1643,7 @@
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2,527,960</v>
+        <v>2527960</v>
       </c>
     </row>
     <row r="9">
@@ -1653,7 +1652,7 @@
       </c>
       <c r="B9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>2,598,743</v>
+        <v>2598743</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1661,7 @@
       </c>
       <c r="B10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>2,671,508</v>
+        <v>2671508</v>
       </c>
     </row>
     <row r="11">
@@ -1671,7 +1670,7 @@
       </c>
       <c r="B11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>2,746,310</v>
+        <v>2746310</v>
       </c>
     </row>
     <row r="12">
@@ -1680,7 +1679,7 @@
       </c>
       <c r="B12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>2,823,207</v>
+        <v>2823207</v>
       </c>
     </row>
     <row r="13">
@@ -1689,7 +1688,7 @@
       </c>
       <c r="B13" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>2,902,257</v>
+        <v>2902257</v>
       </c>
     </row>
     <row r="14">
@@ -1698,7 +1697,7 @@
       </c>
       <c r="B14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>2,983,520</v>
+        <v>2983520</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1706,7 @@
       </c>
       <c r="B15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>3,067,058</v>
+        <v>3067058</v>
       </c>
     </row>
     <row r="16">
